--- a/bf/images/バルーンファイト_画像説明書.xlsx
+++ b/bf/images/バルーンファイト_画像説明書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PG\bf2023\bf2-4a\bf\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E51F122-7F3C-4158-BAD5-10E201386130}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FC4EFA-9F97-4D00-B1DB-653EF99B7B26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13836" windowHeight="8940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13836" windowHeight="8940" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="imagesフォルダ構成" sheetId="1" r:id="rId1"/>
@@ -2968,10 +2968,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1706880</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3028950" cy="1304925"/>
     <xdr:pic>
@@ -2992,18 +2992,22 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+        <a:xfrm>
+          <a:off x="3055620" y="2179320"/>
+          <a:ext cx="3028950" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1958340</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -3026,6 +3030,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3307080" y="3733800"/>
+          <a:ext cx="3028950" cy="295275"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -3071,9 +3079,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1417320</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1495425" cy="1590675"/>
     <xdr:pic>
@@ -3094,6 +3102,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4145280" y="6736080"/>
+          <a:ext cx="1495425" cy="1590675"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -3924,7 +3936,7 @@
   </sheetPr>
   <dimension ref="A3:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
@@ -4908,7 +4920,7 @@
   </sheetPr>
   <dimension ref="A3:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
